--- a/Descargas/R15_7º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Noviembre.xlsx
+++ b/Descargas/R15_7º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Noviembre.xlsx
@@ -1351,7 +1351,7 @@
         </is>
       </c>
       <c r="B115" s="65">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116">
@@ -1431,7 +1431,7 @@
         </is>
       </c>
       <c r="B123" s="65">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124">
@@ -1681,7 +1681,7 @@
         </is>
       </c>
       <c r="B148" s="65">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149">
